--- a/DealerManagementSystem/Templates/Material.xlsx
+++ b/DealerManagementSystem/Templates/Material.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AJAX_ENGG\AJAXOneWeb\DealerManagementSystem\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEEC1E1-7115-47E5-8D8D-40D63C5B1A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CA483-5170-45E9-931A-0B8FABDDC228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="2" r:id="rId1"/>
+    <sheet name="Material" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/DealerManagementSystem/Templates/Material.xlsx
+++ b/DealerManagementSystem/Templates/Material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AJAX_ENGG\AJAXOneWeb\DealerManagementSystem\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\john.peter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CA483-5170-45E9-931A-0B8FABDDC228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F350F8-543B-4207-A2E9-73B3E583AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MaterialCode</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Supersede</t>
   </si>
 </sst>
 </file>
@@ -374,19 +377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -396,8 +400,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -406,6 +413,9 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
